--- a/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
+++ b/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
@@ -3,21 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="disco rigido" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="disco+anello" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="elicottero" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="misure inserzia" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="C1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Alfa (m1) (grd/s^2) raccolta 1-5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">Alfa1 (1-5)</t>
   </si>
   <si>
     <t xml:space="preserve">sigmaB (m1)</t>
@@ -50,19 +53,16 @@
     <t xml:space="preserve">r (cm)</t>
   </si>
   <si>
-    <t xml:space="preserve">alfa m1 (1-5)</t>
-  </si>
-  <si>
     <t xml:space="preserve">sigma alfa m1</t>
   </si>
   <si>
-    <t xml:space="preserve">alfa m2 (7-11)</t>
+    <t xml:space="preserve">Alfa2 (7-11)</t>
   </si>
   <si>
     <t xml:space="preserve">sigma alfa m2 (12-18)</t>
   </si>
   <si>
-    <t xml:space="preserve">alfa m3</t>
+    <t>Alfa3</t>
   </si>
   <si>
     <t xml:space="preserve">sigma alfa m3</t>
@@ -87,6 +87,69 @@
   </si>
   <si>
     <t>sigmaAlfa3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L asta 0.38m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r disco 5cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m anello 469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m asta 26g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m disco 120g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r anello ext 4 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m pesi 80g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r anelli int 3cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T disco1 (1-7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T disco2 (8-12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T disco3 (13-17)</t>
+  </si>
+  <si>
+    <t>stattici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m (g)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L (cm)</t>
+  </si>
+  <si>
+    <t>nota:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le misure dinamiche sono state fatte con il disco, quelle statiche con l'elicottero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gli angoli presi in radianti</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>statici</t>
   </si>
 </sst>
 </file>
@@ -94,14 +157,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="0.0"/>
+    <numFmt numFmtId="160" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,16 +192,24 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +510,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="New Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -466,15 +542,15 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
       </a:majorFont>
@@ -493,76 +569,69 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -598,38 +667,45 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -640,6 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -647,19 +727,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="30.421875"/>
-    <col bestFit="1" min="2" max="2" width="11.47265625"/>
-    <col bestFit="1" min="4" max="4" width="11.47265625"/>
-    <col bestFit="1" min="6" max="6" width="11.47265625"/>
-    <col bestFit="1" min="8" max="8" width="11.47265625"/>
-    <col bestFit="1" min="10" max="10" width="11.47265625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="30.433571428571426"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="11.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="11.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="11.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="7" max="7" style="2" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" style="2" width="11.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="2" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="10" max="10" style="3" width="11.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="11" max="15" style="3" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" style="2" width="12.43357142857143"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
-      <c r="A1" t="s">
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -680,129 +766,589 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="O1" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2">
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="4">
         <v>2630</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3590</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>4190</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>70</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>85</v>
       </c>
-      <c r="P2">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3">
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="4">
         <v>2570</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>3600</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>4130</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="4">
         <v>2600</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3600</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>4250</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" ht="14.25">
-      <c r="A5">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="4">
         <v>2590</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>3500</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4280</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="4">
         <v>2600</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>3490</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>4180</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>5</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="12.719285714285713"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="12.862142857142858"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="1" width="12.719285714285713"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="1" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="14.147857142857141"/>
+    <col bestFit="1" customWidth="1" min="7" max="9" style="2" width="12.43357142857143"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="4">
+        <v>1070</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1510</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1860</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1550</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1840</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="4">
+        <v>1080</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1540</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1860</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="4">
+        <v>1050</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1530</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1850</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="4">
+        <v>1070</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1550</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1830</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="7" max="9" style="2" width="12.43357142857143"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1">
+      <c r="A2" s="7">
+        <v>74.799999999999997</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="C2" s="7">
+        <v>97.900000000000006</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E2" s="7">
+        <v>121</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>50</v>
+      </c>
+      <c r="H2" s="5">
+        <v>70</v>
+      </c>
+      <c r="I2" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1">
+      <c r="A3" s="7">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C3" s="7">
+        <v>98.700000000000003</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>120</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>68.5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C4" s="7">
+        <v>98.5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>122</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="7">
+        <v>67.200000000000003</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C5" s="7">
+        <v>102</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>120</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="7">
+        <v>69</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>101</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.29999999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="1" max="1" width="11.57421875"/>
+    <col customWidth="1" min="2" max="2" width="12.8515625"/>
+    <col bestFit="1" min="3" max="3" width="15.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -813,157 +1359,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="2" max="2" width="12.7109375"/>
-    <col bestFit="1" min="3" max="3" width="12.8125"/>
-    <col bestFit="1" min="4" max="4" width="12.7109375"/>
-    <col customWidth="1" min="6" max="6" width="14.140625"/>
+    <col bestFit="1" min="1" max="1" width="12.33203125"/>
+    <col bestFit="1" min="2" max="2" width="11.28125"/>
+    <col bestFit="1" min="3" max="3" width="14.421875"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
       <c r="A2">
-        <v>1070</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.249</v>
       </c>
       <c r="C2">
-        <v>1510</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>1860</v>
+        <v>250</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>550</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="H2">
-        <v>70</v>
-      </c>
-      <c r="I2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>550</v>
+      </c>
+      <c r="I2" s="8">
+        <v>41.5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
       <c r="A3">
-        <v>1050</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0.253</v>
       </c>
       <c r="C3">
-        <v>1550</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1840</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="G3">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="H3">
+        <v>750</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
       <c r="A4">
-        <v>1080</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0.251</v>
       </c>
       <c r="C4">
-        <v>1540</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1860</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H4">
+        <v>950</v>
+      </c>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" ht="14.25">
       <c r="A5">
-        <v>1050</v>
+        <v>0.224</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0.252</v>
       </c>
       <c r="C5">
-        <v>1530</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>1850</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
       <c r="A6">
-        <v>1070</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0.252</v>
       </c>
       <c r="C6">
-        <v>1550</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>1830</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -982,157 +1514,120 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col bestFit="1" min="2" max="2" width="10.23046875"/>
-    <col bestFit="1" min="4" max="4" width="10.23046875"/>
-    <col bestFit="1" min="6" max="6" width="10.23046875"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
-        <v>74.799999999999997</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.40000000000000002</v>
-      </c>
-      <c r="C2" s="4">
-        <v>97.900000000000006</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E2" s="4">
-        <v>121</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.29999999999999999</v>
+      <c r="A2">
+        <v>1.46</v>
+      </c>
+      <c r="B2">
+        <v>1.47</v>
+      </c>
+      <c r="C2">
+        <v>1.47</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>250</v>
+      </c>
+      <c r="F2">
+        <v>550</v>
       </c>
       <c r="G2">
-        <v>50</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>550</v>
       </c>
       <c r="I2">
-        <v>85</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>98.700000000000003</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E3" s="4">
-        <v>120</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.40000000000000002</v>
+      <c r="A3">
+        <v>1.45</v>
+      </c>
+      <c r="B3">
+        <v>1.48</v>
+      </c>
+      <c r="C3">
+        <v>1.46</v>
+      </c>
+      <c r="G3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H3">
+        <v>750</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
-        <v>68.5</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>98.5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>122</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.29999999999999999</v>
+      <c r="A4">
+        <v>1.46</v>
+      </c>
+      <c r="B4">
+        <v>1.48</v>
+      </c>
+      <c r="C4">
+        <v>1.48</v>
+      </c>
+      <c r="G4">
+        <v>1.4099999999999999</v>
+      </c>
+      <c r="H4">
+        <v>950</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4">
-        <v>67.200000000000003</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>102</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>120</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.40000000000000002</v>
+      <c r="A5">
+        <v>1.4399999999999999</v>
+      </c>
+      <c r="B5">
+        <v>1.47</v>
+      </c>
+      <c r="C5">
+        <v>1.47</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4">
-        <v>69</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.20000000000000001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.29999999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>120</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.40000000000000002</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A6">
+        <v>1.46</v>
+      </c>
+      <c r="B6">
+        <v>1.48</v>
+      </c>
+      <c r="C6">
+        <v>1.47</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
+++ b/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="disco rigido" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="misure inserzia" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="C1" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="C2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="C3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -159,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -170,6 +171,11 @@
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -210,6 +216,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,4 +1645,155 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="D2" s="10">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10">
+        <v>250</v>
+      </c>
+      <c r="F2" s="10">
+        <v>550</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H2" s="10">
+        <v>550</v>
+      </c>
+      <c r="I2" s="10">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="H3" s="10">
+        <v>750</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="H4" s="10">
+        <v>950</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.05</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <v>1.04</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
+++ b/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="disco rigido" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="disco+anello" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="elicottero" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="misure inserzia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="C1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="C1" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="C2" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="C3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t xml:space="preserve">Alfa1 (1-5)</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">r anelli int 3cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diametro fili 1.7mm</t>
   </si>
   <si>
     <t xml:space="preserve">T disco1 (1-7)</t>
@@ -1326,7 +1329,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="11.57421875"/>
+    <col bestFit="1" min="1" max="1" width="17.8515625"/>
     <col customWidth="1" min="2" max="2" width="12.8515625"/>
     <col bestFit="1" min="3" max="3" width="15.00390625"/>
   </cols>
@@ -1359,6 +1362,11 @@
       </c>
       <c r="C3" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1385,13 +1393,13 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1403,16 +1411,16 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25">
@@ -1444,7 +1452,7 @@
         <v>41.5</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.25">
@@ -1465,7 +1473,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" ht="14.25">
@@ -1527,13 +1535,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1545,13 +1553,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -1658,13 +1666,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1676,13 +1684,13 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">

--- a/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
+++ b/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="disco rigido" sheetId="1" state="visible" r:id="rId1"/>
@@ -208,6 +208,7 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -218,7 +219,6 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -779,7 +779,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3"/>
@@ -795,31 +795,31 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>2630</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>3590</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>4190</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>9</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>50</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>70</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>85</v>
       </c>
       <c r="J2" s="3"/>
@@ -828,27 +828,27 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="5">
+      <c r="P2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2570</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>3600</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>4130</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>15</v>
       </c>
       <c r="G3" s="2"/>
@@ -863,22 +863,22 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>2600</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>3600</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>4250</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
@@ -893,22 +893,22 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>2590</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>3500</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>4280</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>9</v>
       </c>
       <c r="G5" s="2"/>
@@ -923,22 +923,22 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>2600</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>3490</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>4180</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
@@ -1012,51 +1012,51 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1070</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1510</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>1860</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>50</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>70</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>1050</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1550</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1840</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
@@ -1064,22 +1064,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1080</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>1540</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>1860</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>4</v>
       </c>
       <c r="G4" s="2"/>
@@ -1087,22 +1087,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>1050</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1530</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>1850</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
@@ -1110,22 +1110,22 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>1070</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1550</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>1830</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>4</v>
       </c>
       <c r="G6" s="2"/>
@@ -1153,32 +1153,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="6" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="6" width="10.290714285714287"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="6" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="6" width="10.290714285714287"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="6" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="7" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="7" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="7" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="7" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="7" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="7" width="10.290714285714287"/>
     <col bestFit="1" customWidth="1" min="7" max="9" style="2" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1192,51 +1192,51 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>74.799999999999997</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>0.40000000000000002</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>97.900000000000006</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>121</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <v>50</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>70</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>69.099999999999994</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="8">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>98.700000000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>120</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>0.40000000000000002</v>
       </c>
       <c r="G3" s="2"/>
@@ -1244,22 +1244,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>68.5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>98.5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>122</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>0.29999999999999999</v>
       </c>
       <c r="G4" s="2"/>
@@ -1267,22 +1267,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>67.200000000000003</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>102</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>120</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>0.40000000000000002</v>
       </c>
       <c r="G5" s="2"/>
@@ -1290,22 +1290,22 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>69</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>101</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>120</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>0.40000000000000002</v>
       </c>
       <c r="G6" s="2"/>
@@ -1416,7 +1416,7 @@
       <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J1" t="s">
@@ -1448,7 +1448,7 @@
       <c r="H2">
         <v>550</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="3">
         <v>41.5</v>
       </c>
       <c r="J2" t="s">
@@ -1471,7 +1471,7 @@
       <c r="H3">
         <v>750</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>40</v>
       </c>
@@ -1492,7 +1492,7 @@
       <c r="H4">
         <v>950</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
@@ -1531,7 +1531,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1662,7 +1662,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="9" t="s">

--- a/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
+++ b/PENDOLO DI TORSIONE/dati_pendolo_di_torsione.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="disco rigido" sheetId="1" state="visible" r:id="rId1"/>
@@ -201,14 +201,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -779,7 +778,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="3"/>
@@ -795,31 +794,31 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2630</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>3590</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>4190</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>9</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>70</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>85</v>
       </c>
       <c r="J2" s="3"/>
@@ -828,27 +827,27 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="6">
+      <c r="P2" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2570</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>3600</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4130</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>15</v>
       </c>
       <c r="G3" s="2"/>
@@ -863,22 +862,22 @@
       <c r="P3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2600</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>3600</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>4250</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
@@ -893,22 +892,22 @@
       <c r="P4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>2590</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>3500</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4280</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>9</v>
       </c>
       <c r="G5" s="2"/>
@@ -923,22 +922,22 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2600</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>3490</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>4180</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>5</v>
       </c>
       <c r="G6" s="2"/>
@@ -1012,51 +1011,51 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>1070</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1510</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1860</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>70</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1050</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1550</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1840</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
       <c r="G3" s="2"/>
@@ -1064,22 +1063,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1080</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1540</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1860</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>4</v>
       </c>
       <c r="G4" s="2"/>
@@ -1087,22 +1086,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1050</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1530</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>1850</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
       <c r="G5" s="2"/>
@@ -1110,22 +1109,22 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>1070</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1550</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>1830</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>4</v>
       </c>
       <c r="G6" s="2"/>
@@ -1153,32 +1152,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="7" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" style="7" width="10.290714285714287"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" style="7" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" style="7" width="10.290714285714287"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="7" width="12.43357142857143"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="7" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" style="6" width="10.290714285714287"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" style="6" width="12.43357142857143"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="6" width="10.290714285714287"/>
     <col bestFit="1" customWidth="1" min="7" max="9" style="2" width="12.43357142857143"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1192,51 +1191,51 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>74.799999999999997</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>0.40000000000000002</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>97.900000000000006</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>121</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>50</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>70</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>69.099999999999994</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>98.700000000000003</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>120</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>0.40000000000000002</v>
       </c>
       <c r="G3" s="2"/>
@@ -1244,22 +1243,22 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>68.5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>98.5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>122</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>0.29999999999999999</v>
       </c>
       <c r="G4" s="2"/>
@@ -1267,22 +1266,22 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>67.200000000000003</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>102</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>120</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.40000000000000002</v>
       </c>
       <c r="G5" s="2"/>
@@ -1290,22 +1289,22 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>69</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.20000000000000001</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>101</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>120</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.40000000000000002</v>
       </c>
       <c r="G6" s="2"/>
@@ -1329,7 +1328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="17.8515625"/>
+    <col customWidth="1" min="1" max="1" width="21.7109375"/>
     <col customWidth="1" min="2" max="2" width="12.8515625"/>
     <col bestFit="1" min="3" max="3" width="15.00390625"/>
   </cols>
@@ -1665,7 +1664,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
@@ -1694,109 +1693,109 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1.04</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1.04</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>1.04</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>50</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>250</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>550</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>0.38400000000000001</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>550</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>28.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>1.04</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1.04</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>1.04</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9">
         <v>0.55900000000000005</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <v>750</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1.04</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>1.04</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>1.03</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <v>950</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1.03</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>1.05</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1.04</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1.04</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>1.03</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>1.03</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
